--- a/data/trans_orig/P11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86A138D6-6FB9-4A5E-9549-1B6A9F8176A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55AE408-900B-4E17-ADEC-08042E2A58EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F51E347-6E1C-43BB-91DB-760DFC688BF1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1C2C373-CEC1-4EE9-8EAF-39085E4B0C8A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="641">
   <si>
     <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1848 +77,1821 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,18%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>Bastante</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>Un poco</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>Bastante</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2015 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>Un poco</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
     <t>7,45%</t>
   </si>
   <si>
@@ -1938,9 +1911,6 @@
   </si>
   <si>
     <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
   </si>
   <si>
     <t>10,73%</t>
@@ -2403,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A4F623-2B77-4127-BC7D-8ACE56D32F86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C1FF0-827B-4045-9D31-A689D99FAC02}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3143,10 +3113,10 @@
         <v>4944</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>109</v>
@@ -3164,7 +3134,7 @@
         <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3173,13 +3143,13 @@
         <v>8013</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3164,13 @@
         <v>9540</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3209,13 +3179,13 @@
         <v>8270</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3224,13 +3194,13 @@
         <v>17810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3215,13 @@
         <v>8177</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -3260,13 +3230,13 @@
         <v>21786</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -3275,7 +3245,7 @@
         <v>29963</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>129</v>
@@ -3454,10 +3424,10 @@
         <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3466,10 +3436,10 @@
         <v>53021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>153</v>
@@ -3481,13 +3451,13 @@
         <v>82880</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,10 +3475,10 @@
         <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -3517,13 +3487,13 @@
         <v>122559</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>204</v>
@@ -3532,13 +3502,13 @@
         <v>207586</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3553,13 +3523,13 @@
         <v>140690</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -3568,13 +3538,13 @@
         <v>256764</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>388</v>
@@ -3583,13 +3553,13 @@
         <v>397455</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3574,13 @@
         <v>340106</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>544</v>
@@ -3619,13 +3589,13 @@
         <v>554362</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>887</v>
@@ -3634,13 +3604,13 @@
         <v>894469</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3625,13 @@
         <v>2680860</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>2338</v>
@@ -3670,13 +3640,13 @@
         <v>2392492</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>4952</v>
@@ -3685,13 +3655,13 @@
         <v>5073351</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,7 +3703,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3747,7 +3717,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBAC1AD9-AD36-4982-8306-71FCFFE786E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7EF3A7-DCD6-4DC0-A280-7C9794ADB3EC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,7 +3753,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3890,13 +3860,13 @@
         <v>37092</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -3905,13 +3875,13 @@
         <v>86575</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>114</v>
@@ -3920,13 +3890,13 @@
         <v>123667</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3941,13 +3911,13 @@
         <v>71140</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
@@ -3956,13 +3926,13 @@
         <v>160787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -3971,13 +3941,13 @@
         <v>231927</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3962,13 @@
         <v>70898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>147</v>
@@ -4007,13 +3977,13 @@
         <v>157295</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -4022,13 +3992,13 @@
         <v>228193</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4013,13 @@
         <v>157093</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H7" s="7">
         <v>274</v>
@@ -4058,13 +4028,13 @@
         <v>291122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M7" s="7">
         <v>421</v>
@@ -4073,13 +4043,13 @@
         <v>448215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4064,13 @@
         <v>634325</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H8" s="7">
         <v>593</v>
@@ -4109,13 +4079,13 @@
         <v>641079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M8" s="7">
         <v>1190</v>
@@ -4124,13 +4094,13 @@
         <v>1275405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4168,13 @@
         <v>13101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4213,13 +4183,13 @@
         <v>26699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -4228,13 +4198,13 @@
         <v>39800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4219,13 @@
         <v>41348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -4264,13 +4234,13 @@
         <v>62389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -4279,13 +4249,13 @@
         <v>103738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4270,13 @@
         <v>39033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -4315,13 +4285,13 @@
         <v>79480</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
         <v>112</v>
@@ -4330,13 +4300,13 @@
         <v>118513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4321,13 @@
         <v>159393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -4366,13 +4336,13 @@
         <v>195372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>326</v>
@@ -4381,13 +4351,13 @@
         <v>354764</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4372,13 @@
         <v>1700250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H14" s="7">
         <v>1301</v>
@@ -4417,13 +4387,13 @@
         <v>1390936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M14" s="7">
         <v>2912</v>
@@ -4432,13 +4402,13 @@
         <v>3091186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,7 +4482,7 @@
         <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4521,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4536,13 +4506,13 @@
         <v>3065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4527,13 @@
         <v>7086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4575,10 +4545,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4587,13 +4557,13 @@
         <v>19000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,13 +4578,13 @@
         <v>10646</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -4623,13 +4593,13 @@
         <v>9429</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -4638,13 +4608,13 @@
         <v>20075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,13 +4629,13 @@
         <v>30440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4674,13 +4644,13 @@
         <v>29496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -4689,13 +4659,13 @@
         <v>59936</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4680,13 @@
         <v>427780</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>367</v>
@@ -4725,13 +4695,13 @@
         <v>407793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M20" s="7">
         <v>761</v>
@@ -4740,13 +4710,13 @@
         <v>835573</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4784,13 @@
         <v>53258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -4829,13 +4799,13 @@
         <v>113274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
@@ -4844,13 +4814,13 @@
         <v>166532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4835,13 @@
         <v>119574</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="H23" s="7">
         <v>214</v>
@@ -4880,13 +4850,13 @@
         <v>235090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M23" s="7">
         <v>320</v>
@@ -4895,13 +4865,13 @@
         <v>354664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4886,13 @@
         <v>120577</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>331</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H24" s="7">
         <v>229</v>
@@ -4931,13 +4901,13 @@
         <v>246204</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>339</v>
@@ -4946,13 +4916,13 @@
         <v>366780</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4937,13 @@
         <v>346926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>38</v>
+        <v>330</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H25" s="7">
         <v>480</v>
@@ -4982,13 +4952,13 @@
         <v>515989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>799</v>
@@ -4997,13 +4967,13 @@
         <v>862915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +4988,13 @@
         <v>2762355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>2261</v>
@@ -5033,13 +5003,13 @@
         <v>2439808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>4863</v>
@@ -5048,13 +5018,13 @@
         <v>5202163</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,7 +5080,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +5099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A649FE7C-1121-4163-8D2F-3A7C9A085F46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670C6A0F-7D7A-4F71-A6EC-88A7580B6F0E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5146,7 +5116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5253,13 +5223,13 @@
         <v>24507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5268,13 +5238,13 @@
         <v>72612</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>362</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5283,13 +5253,13 @@
         <v>97119</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>354</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5274,13 @@
         <v>47664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -5319,13 +5289,13 @@
         <v>119896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M5" s="7">
         <v>149</v>
@@ -5334,13 +5304,13 @@
         <v>167560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5325,13 @@
         <v>62302</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>271</v>
+        <v>366</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -5370,13 +5340,13 @@
         <v>118483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="M6" s="7">
         <v>169</v>
@@ -5385,13 +5355,13 @@
         <v>180785</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5376,13 @@
         <v>120709</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H7" s="7">
         <v>190</v>
@@ -5421,13 +5391,13 @@
         <v>211814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -5436,13 +5406,13 @@
         <v>332523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5427,13 @@
         <v>495229</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -5472,13 +5442,13 @@
         <v>460023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -5487,13 +5457,13 @@
         <v>955252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5531,13 @@
         <v>20122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5576,13 +5546,13 @@
         <v>29868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>393</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -5591,13 +5561,13 @@
         <v>49990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>404</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5582,13 @@
         <v>38309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -5627,13 +5597,13 @@
         <v>76936</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>401</v>
       </c>
       <c r="M11" s="7">
         <v>106</v>
@@ -5645,10 +5615,10 @@
         <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>80</v>
+        <v>402</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>255</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5633,13 @@
         <v>60894</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -5678,13 +5648,13 @@
         <v>72204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>121</v>
@@ -5693,13 +5663,13 @@
         <v>133098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>321</v>
+        <v>162</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5684,13 @@
         <v>198084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -5729,13 +5699,13 @@
         <v>226026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>419</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -5744,13 +5714,13 @@
         <v>424110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>423</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5735,13 @@
         <v>1743842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>1530</v>
@@ -5780,13 +5750,13 @@
         <v>1574395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>3173</v>
@@ -5795,13 +5765,13 @@
         <v>3318237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5869,13 +5839,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5887,10 +5857,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>436</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5899,13 +5869,13 @@
         <v>6395</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>438</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5890,13 @@
         <v>7943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>432</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5935,13 +5905,13 @@
         <v>16985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5950,13 +5920,13 @@
         <v>24927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>436</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>444</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5941,13 @@
         <v>13691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>436</v>
+        <v>76</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5986,13 +5956,13 @@
         <v>13792</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>439</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -6001,13 +5971,13 @@
         <v>27484</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>439</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>447</v>
+        <v>152</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>448</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +5992,13 @@
         <v>30154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>442</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>443</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -6037,13 +6007,13 @@
         <v>50708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -6052,13 +6022,13 @@
         <v>80862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6043,13 @@
         <v>488500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -6088,13 +6058,13 @@
         <v>460356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M20" s="7">
         <v>895</v>
@@ -6103,13 +6073,13 @@
         <v>948855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6177,13 +6147,13 @@
         <v>45576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>70</v>
+        <v>458</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -6192,13 +6162,13 @@
         <v>107929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -6207,13 +6177,13 @@
         <v>153505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>109</v>
+        <v>463</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>468</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>469</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6228,13 +6198,13 @@
         <v>93916</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -6243,13 +6213,13 @@
         <v>213817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>472</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>279</v>
@@ -6258,13 +6228,13 @@
         <v>307733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>474</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>475</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6279,13 +6249,13 @@
         <v>136887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>130</v>
+        <v>468</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>287</v>
+        <v>469</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>470</v>
       </c>
       <c r="H24" s="7">
         <v>179</v>
@@ -6294,13 +6264,13 @@
         <v>204480</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>21</v>
+        <v>472</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>477</v>
+        <v>355</v>
       </c>
       <c r="M24" s="7">
         <v>313</v>
@@ -6309,13 +6279,13 @@
         <v>341367</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6330,13 +6300,13 @@
         <v>348947</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>35</v>
+        <v>478</v>
       </c>
       <c r="H25" s="7">
         <v>444</v>
@@ -6345,13 +6315,13 @@
         <v>488548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M25" s="7">
         <v>780</v>
@@ -6360,13 +6330,13 @@
         <v>837495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,13 +6351,13 @@
         <v>2727571</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>490</v>
+        <v>341</v>
       </c>
       <c r="H26" s="7">
         <v>2401</v>
@@ -6396,13 +6366,13 @@
         <v>2494774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M26" s="7">
         <v>4987</v>
@@ -6411,13 +6381,13 @@
         <v>5222345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6443,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -6492,7 +6462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F026510-15FA-4B11-A073-E964A4C8CCD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE04C7CB-C0FF-4DF3-B008-E8F60B8E6616}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6509,7 +6479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6616,13 +6586,13 @@
         <v>34850</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>498</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>170</v>
@@ -6631,13 +6601,13 @@
         <v>88853</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>214</v>
+        <v>495</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
@@ -6646,13 +6616,13 @@
         <v>123703</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6637,13 @@
         <v>72818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H5" s="7">
         <v>262</v>
@@ -6682,13 +6652,13 @@
         <v>155031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>359</v>
@@ -6697,13 +6667,13 @@
         <v>227849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6688,13 @@
         <v>62135</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
@@ -6733,13 +6703,13 @@
         <v>127093</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M6" s="7">
         <v>306</v>
@@ -6748,13 +6718,13 @@
         <v>189228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6739,13 @@
         <v>71195</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H7" s="7">
         <v>292</v>
@@ -6784,13 +6754,13 @@
         <v>164134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -6799,13 +6769,13 @@
         <v>235328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6790,13 @@
         <v>300636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -6835,13 +6805,13 @@
         <v>298416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
@@ -6850,13 +6820,13 @@
         <v>599052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,13 +6894,13 @@
         <v>39390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -6939,13 +6909,13 @@
         <v>57977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -6954,13 +6924,13 @@
         <v>97368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6975,13 +6945,13 @@
         <v>101219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>543</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
@@ -6990,13 +6960,13 @@
         <v>123072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>547</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
@@ -7005,13 +6975,13 @@
         <v>224291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>453</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7026,13 +6996,13 @@
         <v>128661</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="H12" s="7">
         <v>260</v>
@@ -7041,13 +7011,13 @@
         <v>173242</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="M12" s="7">
         <v>402</v>
@@ -7056,13 +7026,13 @@
         <v>301903</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>556</v>
+        <v>29</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7047,13 @@
         <v>259929</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>558</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="H13" s="7">
         <v>507</v>
@@ -7092,13 +7062,13 @@
         <v>411950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M13" s="7">
         <v>793</v>
@@ -7107,13 +7077,13 @@
         <v>671879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7098,13 @@
         <v>1630981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H14" s="7">
         <v>1862</v>
@@ -7143,13 +7113,13 @@
         <v>1482780</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M14" s="7">
         <v>3274</v>
@@ -7158,13 +7128,13 @@
         <v>3113760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,13 +7202,13 @@
         <v>8705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7247,13 +7217,13 @@
         <v>11239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>578</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>571</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>572</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7262,13 +7232,13 @@
         <v>19944</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>573</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7283,13 +7253,13 @@
         <v>19233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>580</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -7298,13 +7268,13 @@
         <v>29842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>577</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7313,13 +7283,13 @@
         <v>49075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7304,13 @@
         <v>28240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>587</v>
+        <v>408</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -7349,13 +7319,13 @@
         <v>45128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>589</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>583</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -7364,13 +7334,13 @@
         <v>73368</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>592</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7355,13 @@
         <v>69891</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>595</v>
+        <v>483</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -7403,10 +7373,10 @@
         <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M19" s="7">
         <v>224</v>
@@ -7415,13 +7385,13 @@
         <v>165762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7406,13 @@
         <v>545466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H20" s="7">
         <v>713</v>
@@ -7451,13 +7421,13 @@
         <v>530256</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="M20" s="7">
         <v>1252</v>
@@ -7466,13 +7436,13 @@
         <v>1075722</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7510,13 @@
         <v>82946</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H22" s="7">
         <v>288</v>
@@ -7555,13 +7525,13 @@
         <v>158069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>615</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -7570,13 +7540,13 @@
         <v>241015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>607</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,13 +7561,13 @@
         <v>193270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>617</v>
+        <v>202</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>618</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="H23" s="7">
         <v>501</v>
@@ -7606,13 +7576,13 @@
         <v>307945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>366</v>
+        <v>610</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="M23" s="7">
         <v>727</v>
@@ -7621,13 +7591,13 @@
         <v>501215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>622</v>
+        <v>466</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7612,13 @@
         <v>219036</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>616</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="H24" s="7">
         <v>557</v>
@@ -7657,13 +7627,13 @@
         <v>345463</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="M24" s="7">
         <v>815</v>
@@ -7672,13 +7642,13 @@
         <v>564499</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7663,13 @@
         <v>401015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>633</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="H25" s="7">
         <v>946</v>
@@ -7708,13 +7678,13 @@
         <v>671955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="M25" s="7">
         <v>1410</v>
@@ -7723,13 +7693,13 @@
         <v>1072970</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7714,13 @@
         <v>2477082</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="H26" s="7">
         <v>3053</v>
@@ -7759,13 +7729,13 @@
         <v>2311453</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="M26" s="7">
         <v>5365</v>
@@ -7774,13 +7744,13 @@
         <v>4788535</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,7 +7806,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55AE408-900B-4E17-ADEC-08042E2A58EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E490C82A-9E6F-4E99-B554-781CC2BF50F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1C2C373-CEC1-4EE9-8EAF-39085E4B0C8A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C27AEE98-2E12-48FF-99EC-FAC0E73B8D05}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="645">
   <si>
     <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,17%</t>
   </si>
   <si>
     <t>2,84%</t>
@@ -86,1882 +86,1894 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,75%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>Bastante</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>Un poco</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>Bastante</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>57,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>Un poco</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2015 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>14,97%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>60,91%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49C1FF0-827B-4045-9D31-A689D99FAC02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E4F299-17CF-46BA-AD03-F85376D45DF0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2835,13 +2847,13 @@
         <v>21275</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,13 +2868,13 @@
         <v>23767</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -2871,13 +2883,13 @@
         <v>29395</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -2886,13 +2898,13 @@
         <v>53162</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,13 +2919,13 @@
         <v>39962</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -2922,13 +2934,13 @@
         <v>59667</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -2937,13 +2949,13 @@
         <v>99629</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2970,13 @@
         <v>125428</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -2973,13 +2985,13 @@
         <v>185906</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -2988,13 +3000,13 @@
         <v>311334</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,16 +3018,16 @@
         <v>1455</v>
       </c>
       <c r="D14" s="7">
-        <v>1498795</v>
+        <v>1498796</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>1274</v>
@@ -3024,13 +3036,13 @@
         <v>1296890</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>2729</v>
@@ -3039,13 +3051,13 @@
         <v>2795686</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3069,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3101,7 +3113,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3113,7 +3125,7 @@
         <v>4944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>108</v>
@@ -3134,7 +3146,7 @@
         <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3143,13 +3155,13 @@
         <v>8013</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,13 +3176,13 @@
         <v>9540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3179,13 +3191,13 @@
         <v>8270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3194,13 +3206,13 @@
         <v>17810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3227,13 @@
         <v>8177</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -3230,13 +3242,13 @@
         <v>21786</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>29</v>
@@ -3245,13 +3257,13 @@
         <v>29963</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3278,13 @@
         <v>33675</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -3281,13 +3293,13 @@
         <v>47379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -3296,13 +3308,13 @@
         <v>81054</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3329,13 @@
         <v>495073</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -3332,13 +3344,13 @@
         <v>395908</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>850</v>
@@ -3347,13 +3359,13 @@
         <v>890981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3433,13 @@
         <v>29859</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3436,13 +3448,13 @@
         <v>53021</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -3451,13 +3463,13 @@
         <v>82880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,10 +3487,10 @@
         <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -3487,13 +3499,13 @@
         <v>122559</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>204</v>
@@ -3502,13 +3514,13 @@
         <v>207586</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3535,13 @@
         <v>140690</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -3538,13 +3550,13 @@
         <v>256764</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>388</v>
@@ -3553,13 +3565,13 @@
         <v>397455</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3586,13 @@
         <v>340106</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>35</v>
       </c>
       <c r="H25" s="7">
         <v>544</v>
@@ -3589,13 +3601,13 @@
         <v>554362</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>887</v>
@@ -3604,13 +3616,13 @@
         <v>894469</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,16 +3634,16 @@
         <v>2614</v>
       </c>
       <c r="D26" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>2338</v>
@@ -3640,13 +3652,13 @@
         <v>2392492</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>4952</v>
@@ -3655,13 +3667,13 @@
         <v>5073351</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,7 +3685,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3717,7 +3729,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3736,7 +3748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7EF3A7-DCD6-4DC0-A280-7C9794ADB3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04973F1-75DA-4249-9936-9C75BCB8F8BB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3753,7 +3765,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3860,13 +3872,13 @@
         <v>37092</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>193</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -3875,10 +3887,10 @@
         <v>86575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>197</v>
@@ -3929,10 +3941,10 @@
         <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -3941,13 +3953,13 @@
         <v>231927</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3974,13 @@
         <v>70898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H6" s="7">
         <v>147</v>
@@ -3977,13 +3989,13 @@
         <v>157295</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -3992,13 +4004,13 @@
         <v>228193</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4025,13 @@
         <v>157093</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H7" s="7">
         <v>274</v>
@@ -4028,13 +4040,13 @@
         <v>291122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M7" s="7">
         <v>421</v>
@@ -4043,13 +4055,13 @@
         <v>448215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4076,13 @@
         <v>634325</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="7">
         <v>593</v>
@@ -4079,13 +4091,13 @@
         <v>641079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M8" s="7">
         <v>1190</v>
@@ -4094,13 +4106,13 @@
         <v>1275405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4180,13 @@
         <v>13101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4183,13 +4195,13 @@
         <v>26699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -4198,13 +4210,13 @@
         <v>39800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>112</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4231,13 @@
         <v>41348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -4234,13 +4246,13 @@
         <v>62389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -4249,13 +4261,13 @@
         <v>103738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4282,13 @@
         <v>39033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -4285,13 +4297,13 @@
         <v>79480</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>112</v>
@@ -4300,13 +4312,13 @@
         <v>118513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>258</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4333,13 @@
         <v>159393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -4336,13 +4348,13 @@
         <v>195372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>326</v>
@@ -4351,13 +4363,13 @@
         <v>354764</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4384,13 @@
         <v>1700250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>1301</v>
@@ -4387,13 +4399,13 @@
         <v>1390936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>2912</v>
@@ -4402,13 +4414,13 @@
         <v>3091186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,7 +4476,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4482,7 +4494,7 @@
         <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4491,13 +4503,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4506,13 +4518,13 @@
         <v>3065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>149</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4539,13 @@
         <v>7086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4545,10 +4557,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4557,13 +4569,13 @@
         <v>19000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4590,13 @@
         <v>10646</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -4593,13 +4605,13 @@
         <v>9429</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -4608,13 +4620,13 @@
         <v>20075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4641,13 @@
         <v>30440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4644,13 +4656,13 @@
         <v>29496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M19" s="7">
         <v>52</v>
@@ -4659,13 +4671,13 @@
         <v>59936</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4692,13 @@
         <v>427780</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H20" s="7">
         <v>367</v>
@@ -4695,13 +4707,13 @@
         <v>407793</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M20" s="7">
         <v>761</v>
@@ -4710,13 +4722,13 @@
         <v>835573</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4796,13 @@
         <v>53258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -4799,13 +4811,13 @@
         <v>113274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
@@ -4814,13 +4826,13 @@
         <v>166532</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4835,13 +4847,13 @@
         <v>119574</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>316</v>
+        <v>247</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="H23" s="7">
         <v>214</v>
@@ -4850,13 +4862,13 @@
         <v>235090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M23" s="7">
         <v>320</v>
@@ -4865,13 +4877,13 @@
         <v>354664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4898,13 @@
         <v>120577</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H24" s="7">
         <v>229</v>
@@ -4901,13 +4913,13 @@
         <v>246204</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M24" s="7">
         <v>339</v>
@@ -4916,13 +4928,13 @@
         <v>366780</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>327</v>
+        <v>25</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4949,13 @@
         <v>346926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H25" s="7">
         <v>480</v>
@@ -4952,13 +4964,13 @@
         <v>515989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M25" s="7">
         <v>799</v>
@@ -4967,13 +4979,13 @@
         <v>862915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5000,13 @@
         <v>2762355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H26" s="7">
         <v>2261</v>
@@ -5003,13 +5015,13 @@
         <v>2439808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="M26" s="7">
         <v>4863</v>
@@ -5018,13 +5030,13 @@
         <v>5202163</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,7 +5092,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5099,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670C6A0F-7D7A-4F71-A6EC-88A7580B6F0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D357AF6A-DEFC-4223-81C2-92CAEDC99CD9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5116,7 +5128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5223,13 +5235,13 @@
         <v>24507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5238,13 +5250,13 @@
         <v>72612</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>358</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5253,13 +5265,13 @@
         <v>97119</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5286,13 @@
         <v>47664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>299</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -5289,13 +5301,13 @@
         <v>119896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="M5" s="7">
         <v>149</v>
@@ -5304,13 +5316,13 @@
         <v>167560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5337,13 @@
         <v>62302</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -5340,13 +5352,13 @@
         <v>118483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M6" s="7">
         <v>169</v>
@@ -5355,13 +5367,13 @@
         <v>180785</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5388,13 @@
         <v>120709</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>190</v>
@@ -5391,13 +5403,13 @@
         <v>211814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -5406,13 +5418,13 @@
         <v>332523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5439,13 @@
         <v>495229</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -5442,13 +5454,13 @@
         <v>460023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -5457,13 +5469,13 @@
         <v>955252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5543,13 @@
         <v>20122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5546,13 +5558,13 @@
         <v>29868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>393</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -5561,13 +5573,13 @@
         <v>49990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>297</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>81</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5594,13 @@
         <v>38309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -5597,13 +5609,13 @@
         <v>76936</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>399</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M11" s="7">
         <v>106</v>
@@ -5612,13 +5624,13 @@
         <v>115246</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>404</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5645,13 @@
         <v>60894</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -5648,13 +5660,13 @@
         <v>72204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M12" s="7">
         <v>121</v>
@@ -5663,13 +5675,13 @@
         <v>133098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>162</v>
+        <v>413</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5696,13 @@
         <v>198084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -5699,13 +5711,13 @@
         <v>226026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>418</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -5714,13 +5726,13 @@
         <v>424110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5747,13 @@
         <v>1743842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H14" s="7">
         <v>1530</v>
@@ -5750,13 +5762,13 @@
         <v>1574395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="M14" s="7">
         <v>3173</v>
@@ -5765,13 +5777,13 @@
         <v>3318237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5839,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5839,13 +5851,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5857,10 +5869,10 @@
         <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>257</v>
+        <v>436</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -5869,13 +5881,13 @@
         <v>6395</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>431</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,13 +5902,13 @@
         <v>7943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5905,13 +5917,13 @@
         <v>16985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5920,13 +5932,13 @@
         <v>24927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5953,13 @@
         <v>13691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>444</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5956,13 +5968,13 @@
         <v>13792</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>354</v>
+        <v>449</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5971,13 +5983,13 @@
         <v>27484</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>152</v>
+        <v>450</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>192</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +6004,13 @@
         <v>30154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -6007,13 +6019,13 @@
         <v>50708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>456</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -6022,13 +6034,13 @@
         <v>80862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>446</v>
+        <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6055,13 @@
         <v>488500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -6058,13 +6070,13 @@
         <v>460356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>454</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>895</v>
@@ -6073,13 +6085,13 @@
         <v>948855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,13 +6159,13 @@
         <v>45576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>458</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>459</v>
+        <v>15</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -6162,13 +6174,13 @@
         <v>107929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -6177,13 +6189,13 @@
         <v>153505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>472</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6198,13 +6210,13 @@
         <v>93916</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -6213,13 +6225,13 @@
         <v>213817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>475</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="M23" s="7">
         <v>279</v>
@@ -6231,10 +6243,10 @@
         <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>467</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6249,13 +6261,13 @@
         <v>136887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="H24" s="7">
         <v>179</v>
@@ -6264,13 +6276,13 @@
         <v>204480</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>355</v>
+        <v>483</v>
       </c>
       <c r="M24" s="7">
         <v>313</v>
@@ -6279,13 +6291,13 @@
         <v>341367</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>473</v>
+        <v>306</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6300,13 +6312,13 @@
         <v>348947</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H25" s="7">
         <v>444</v>
@@ -6315,13 +6327,13 @@
         <v>488548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M25" s="7">
         <v>780</v>
@@ -6330,13 +6342,13 @@
         <v>837495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6363,13 @@
         <v>2727571</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>341</v>
+        <v>494</v>
       </c>
       <c r="H26" s="7">
         <v>2401</v>
@@ -6366,13 +6378,13 @@
         <v>2494774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>4987</v>
@@ -6381,13 +6393,13 @@
         <v>5222345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6443,7 +6455,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6462,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE04C7CB-C0FF-4DF3-B008-E8F60B8E6616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F973F16F-AAE3-42AD-8B16-24432CA7FB47}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6479,7 +6491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6586,13 +6598,13 @@
         <v>34850</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>503</v>
       </c>
       <c r="H4" s="7">
         <v>170</v>
@@ -6601,13 +6613,13 @@
         <v>88853</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
@@ -6616,13 +6628,13 @@
         <v>123703</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6649,13 @@
         <v>72818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="H5" s="7">
         <v>262</v>
@@ -6652,13 +6664,13 @@
         <v>155031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>503</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="M5" s="7">
         <v>359</v>
@@ -6667,13 +6679,13 @@
         <v>227849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6700,13 @@
         <v>62135</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
@@ -6703,13 +6715,13 @@
         <v>127093</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>521</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="M6" s="7">
         <v>306</v>
@@ -6718,13 +6730,13 @@
         <v>189228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6751,13 @@
         <v>71195</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="H7" s="7">
         <v>292</v>
@@ -6754,13 +6766,13 @@
         <v>164134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -6769,13 +6781,13 @@
         <v>235328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6802,13 @@
         <v>300636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -6805,13 +6817,13 @@
         <v>298416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
@@ -6820,13 +6832,13 @@
         <v>599052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,13 +6906,13 @@
         <v>39390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>544</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>534</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -6909,13 +6921,13 @@
         <v>57977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>250</v>
+        <v>545</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>535</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -6924,13 +6936,13 @@
         <v>97368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>537</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6945,13 +6957,13 @@
         <v>101219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>548</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>539</v>
+        <v>82</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>540</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
@@ -6960,13 +6972,13 @@
         <v>123072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>474</v>
+        <v>550</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>295</v>
+        <v>551</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
@@ -6975,13 +6987,13 @@
         <v>224291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +7008,13 @@
         <v>128661</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="H12" s="7">
         <v>260</v>
@@ -7011,13 +7023,13 @@
         <v>173242</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="M12" s="7">
         <v>402</v>
@@ -7026,13 +7038,13 @@
         <v>301903</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>29</v>
+        <v>561</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>551</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,10 +7062,10 @@
         <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="H13" s="7">
         <v>507</v>
@@ -7062,13 +7074,13 @@
         <v>411950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="M13" s="7">
         <v>793</v>
@@ -7077,13 +7089,13 @@
         <v>671879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7098,13 +7110,13 @@
         <v>1630981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="H14" s="7">
         <v>1862</v>
@@ -7113,28 +7125,28 @@
         <v>1482780</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="M14" s="7">
         <v>3274</v>
       </c>
       <c r="N14" s="7">
-        <v>3113760</v>
+        <v>3113761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,7 +7188,7 @@
         <v>4910</v>
       </c>
       <c r="N15" s="7">
-        <v>4409201</v>
+        <v>4409202</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7190,7 +7202,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7202,13 +7214,13 @@
         <v>8705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>568</v>
+        <v>400</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>569</v>
+        <v>237</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7217,13 +7229,13 @@
         <v>11239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>580</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>571</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>572</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7232,13 +7244,13 @@
         <v>19944</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>154</v>
+        <v>582</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,13 +7265,13 @@
         <v>19233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>584</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -7268,13 +7280,13 @@
         <v>29842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7283,13 +7295,13 @@
         <v>49075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>579</v>
+        <v>16</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,13 +7316,13 @@
         <v>28240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>408</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -7319,13 +7331,13 @@
         <v>45128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>583</v>
+        <v>327</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -7334,13 +7346,13 @@
         <v>73368</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,13 +7367,13 @@
         <v>69891</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>483</v>
+        <v>597</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -7370,13 +7382,13 @@
         <v>95871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>598</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="M19" s="7">
         <v>224</v>
@@ -7385,13 +7397,13 @@
         <v>165762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>591</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7406,13 +7418,13 @@
         <v>545466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>595</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>713</v>
@@ -7421,13 +7433,13 @@
         <v>530256</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="M20" s="7">
         <v>1252</v>
@@ -7436,13 +7448,13 @@
         <v>1075722</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7510,13 +7522,13 @@
         <v>82946</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="H22" s="7">
         <v>288</v>
@@ -7525,13 +7537,13 @@
         <v>158069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>605</v>
+        <v>323</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>606</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -7540,13 +7552,13 @@
         <v>241015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>607</v>
+        <v>443</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>608</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7561,13 +7573,13 @@
         <v>193270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>202</v>
+        <v>613</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>165</v>
+        <v>614</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H23" s="7">
         <v>501</v>
@@ -7576,13 +7588,13 @@
         <v>307945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="M23" s="7">
         <v>727</v>
@@ -7591,13 +7603,13 @@
         <v>501215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>466</v>
+        <v>619</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>613</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,13 +7624,13 @@
         <v>219036</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="H24" s="7">
         <v>557</v>
@@ -7627,13 +7639,13 @@
         <v>345463</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>620</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
         <v>815</v>
@@ -7642,13 +7654,13 @@
         <v>564499</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7663,13 +7675,13 @@
         <v>401015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>445</v>
+        <v>628</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="H25" s="7">
         <v>946</v>
@@ -7678,13 +7690,13 @@
         <v>671955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="M25" s="7">
         <v>1410</v>
@@ -7693,13 +7705,13 @@
         <v>1072970</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>630</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7714,13 +7726,13 @@
         <v>2477082</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H26" s="7">
         <v>3053</v>
@@ -7729,13 +7741,13 @@
         <v>2311453</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="M26" s="7">
         <v>5365</v>
@@ -7744,13 +7756,13 @@
         <v>4788535</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,7 +7818,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E490C82A-9E6F-4E99-B554-781CC2BF50F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E45826A-1D7B-47AC-A9A6-A0B49DEC47C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C27AEE98-2E12-48FF-99EC-FAC0E73B8D05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{007E9AE7-AF57-43CC-9FE9-DDC476B31592}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="651">
   <si>
     <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1849 +77,1864 @@
     <t>1,89%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>Bastante</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>Un poco</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2016 (Tasa respuesta: 99,31%)</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>Bastante</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>Regular</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>Un poco</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2016 (Tasa respuesta: 99,31%)</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>57,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>7,45%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>7,18%</t>
+    <t>7,21%</t>
   </si>
   <si>
     <t>8,52%</t>
@@ -1928,52 +1943,55 @@
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
   </si>
   <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>14,97%</t>
   </si>
   <si>
-    <t>20,03%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>60,91%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
   </si>
   <si>
     <t>66,8%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
   </si>
 </sst>
 </file>
@@ -2385,7 +2403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E4F299-17CF-46BA-AD03-F85376D45DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A6CF7-054E-426B-A96C-0ADF0DDC9D87}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2847,13 +2865,13 @@
         <v>21275</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2886,13 @@
         <v>23767</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -2883,13 +2901,13 @@
         <v>29395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -2898,13 +2916,13 @@
         <v>53162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2919,13 +2937,13 @@
         <v>39962</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>56</v>
@@ -2934,13 +2952,13 @@
         <v>59667</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>95</v>
@@ -2949,13 +2967,13 @@
         <v>99629</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2988,13 @@
         <v>125428</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>181</v>
@@ -2985,13 +3003,13 @@
         <v>185906</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>305</v>
@@ -3000,13 +3018,13 @@
         <v>311334</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,16 +3036,16 @@
         <v>1455</v>
       </c>
       <c r="D14" s="7">
-        <v>1498796</v>
+        <v>1498795</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>1274</v>
@@ -3036,13 +3054,13 @@
         <v>1296890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>2729</v>
@@ -3051,13 +3069,13 @@
         <v>2795686</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,7 +3087,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3113,7 +3131,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3125,10 +3143,10 @@
         <v>4944</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>109</v>
@@ -3158,10 +3176,10 @@
         <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3194,13 @@
         <v>9540</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3191,13 +3209,13 @@
         <v>8270</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3206,10 +3224,10 @@
         <v>17810</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>122</v>
@@ -3257,13 +3275,13 @@
         <v>29963</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3296,13 @@
         <v>33675</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -3293,13 +3311,13 @@
         <v>47379</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>77</v>
@@ -3308,13 +3326,13 @@
         <v>81054</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3347,13 @@
         <v>495073</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>375</v>
@@ -3344,13 +3362,13 @@
         <v>395908</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>850</v>
@@ -3359,13 +3377,13 @@
         <v>890981</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3451,13 @@
         <v>29859</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>50</v>
@@ -3448,13 +3466,13 @@
         <v>53021</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -3463,13 +3481,13 @@
         <v>82880</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,10 +3505,10 @@
         <v>14</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>119</v>
@@ -3499,13 +3517,13 @@
         <v>122559</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>204</v>
@@ -3514,13 +3532,13 @@
         <v>207586</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3553,13 @@
         <v>140690</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>246</v>
@@ -3550,13 +3568,13 @@
         <v>256764</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>388</v>
@@ -3565,13 +3583,13 @@
         <v>397455</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3604,13 @@
         <v>340106</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H25" s="7">
         <v>544</v>
@@ -3634,7 +3652,7 @@
         <v>2614</v>
       </c>
       <c r="D26" s="7">
-        <v>2680859</v>
+        <v>2680860</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>183</v>
@@ -3685,7 +3703,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3715,7 +3733,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3748,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04973F1-75DA-4249-9936-9C75BCB8F8BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FC7F0-00BC-40B9-8F9C-1D18C67CA2A5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3875,10 +3893,10 @@
         <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -3887,13 +3905,13 @@
         <v>86575</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>114</v>
@@ -3902,13 +3920,13 @@
         <v>123667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3941,13 @@
         <v>71140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>151</v>
@@ -3938,13 +3956,13 @@
         <v>160787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>215</v>
@@ -3953,13 +3971,13 @@
         <v>231927</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3992,13 @@
         <v>70898</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>147</v>
@@ -3989,13 +4007,13 @@
         <v>157295</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>210</v>
@@ -4004,13 +4022,13 @@
         <v>228193</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4043,13 @@
         <v>157093</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>274</v>
@@ -4040,13 +4058,13 @@
         <v>291122</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>421</v>
@@ -4055,13 +4073,13 @@
         <v>448215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,13 +4094,13 @@
         <v>634325</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>593</v>
@@ -4091,13 +4109,13 @@
         <v>641079</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>1190</v>
@@ -4106,13 +4124,13 @@
         <v>1275405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4198,13 @@
         <v>13101</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -4195,13 +4213,13 @@
         <v>26699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -4210,13 +4228,13 @@
         <v>39800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4249,13 @@
         <v>41348</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>53</v>
@@ -4246,13 +4264,13 @@
         <v>62389</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -4261,13 +4279,13 @@
         <v>103738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4300,13 @@
         <v>39033</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>74</v>
@@ -4297,13 +4315,13 @@
         <v>79480</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M12" s="7">
         <v>112</v>
@@ -4312,13 +4330,13 @@
         <v>118513</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4351,13 @@
         <v>159393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -4348,13 +4366,13 @@
         <v>195372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>326</v>
@@ -4363,13 +4381,13 @@
         <v>354764</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4402,13 @@
         <v>1700250</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>1301</v>
@@ -4399,13 +4417,13 @@
         <v>1390936</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>2912</v>
@@ -4414,13 +4432,13 @@
         <v>3091186</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,7 +4494,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4494,7 +4512,7 @@
         <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4503,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4518,13 +4536,13 @@
         <v>3065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>285</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,10 +4575,10 @@
         <v>14</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4572,10 +4590,10 @@
         <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4608,13 @@
         <v>10646</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -4605,13 +4623,13 @@
         <v>9429</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M18" s="7">
         <v>17</v>
@@ -4620,13 +4638,13 @@
         <v>20075</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>296</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4659,13 @@
         <v>30440</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4656,10 +4674,10 @@
         <v>29496</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>304</v>
@@ -4796,13 +4814,13 @@
         <v>53258</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H22" s="7">
         <v>106</v>
@@ -4811,13 +4829,13 @@
         <v>113274</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M22" s="7">
         <v>155</v>
@@ -4826,13 +4844,13 @@
         <v>166532</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,10 +4868,10 @@
         <v>322</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H23" s="7">
         <v>214</v>
@@ -4862,13 +4880,13 @@
         <v>235090</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>320</v>
@@ -4877,13 +4895,13 @@
         <v>354664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4916,13 @@
         <v>120577</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H24" s="7">
         <v>229</v>
@@ -4913,13 +4931,13 @@
         <v>246204</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M24" s="7">
         <v>339</v>
@@ -4928,13 +4946,13 @@
         <v>366780</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>25</v>
+        <v>337</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4967,13 @@
         <v>346926</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H25" s="7">
         <v>480</v>
@@ -4964,13 +4982,13 @@
         <v>515989</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M25" s="7">
         <v>799</v>
@@ -4979,13 +4997,13 @@
         <v>862915</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +5018,13 @@
         <v>2762355</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H26" s="7">
         <v>2261</v>
@@ -5015,13 +5033,13 @@
         <v>2439808</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>4863</v>
@@ -5030,13 +5048,13 @@
         <v>5202163</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D357AF6A-DEFC-4223-81C2-92CAEDC99CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433A8FE-BAEB-4EAB-AE4A-E9602CC1A9CA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5128,7 +5146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5235,13 +5253,13 @@
         <v>24507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>358</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -5250,13 +5268,13 @@
         <v>72612</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -5265,13 +5283,13 @@
         <v>97119</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>359</v>
+        <v>213</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>360</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5304,13 @@
         <v>47664</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -5301,13 +5319,13 @@
         <v>119896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M5" s="7">
         <v>149</v>
@@ -5316,13 +5334,13 @@
         <v>167560</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5355,13 @@
         <v>62302</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="H6" s="7">
         <v>102</v>
@@ -5352,13 +5370,13 @@
         <v>118483</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="M6" s="7">
         <v>169</v>
@@ -5367,13 +5385,13 @@
         <v>180785</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5406,13 @@
         <v>120709</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H7" s="7">
         <v>190</v>
@@ -5403,13 +5421,13 @@
         <v>211814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>315</v>
@@ -5418,13 +5436,13 @@
         <v>332523</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5457,13 @@
         <v>495229</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -5454,13 +5472,13 @@
         <v>460023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -5469,13 +5487,13 @@
         <v>955252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5561,13 @@
         <v>20122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -5558,13 +5576,13 @@
         <v>29868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>296</v>
+        <v>402</v>
       </c>
       <c r="M10" s="7">
         <v>45</v>
@@ -5573,13 +5591,13 @@
         <v>49990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5612,13 @@
         <v>38309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H11" s="7">
         <v>71</v>
@@ -5609,13 +5627,13 @@
         <v>76936</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>402</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>403</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
         <v>106</v>
@@ -5624,13 +5642,13 @@
         <v>115246</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>404</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5663,13 @@
         <v>60894</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -5660,13 +5678,13 @@
         <v>72204</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>410</v>
+        <v>253</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M12" s="7">
         <v>121</v>
@@ -5675,13 +5693,13 @@
         <v>133098</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5714,13 @@
         <v>198084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H13" s="7">
         <v>206</v>
@@ -5711,13 +5729,13 @@
         <v>226026</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M13" s="7">
         <v>391</v>
@@ -5726,13 +5744,13 @@
         <v>424110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5765,13 @@
         <v>1743842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H14" s="7">
         <v>1530</v>
@@ -5762,13 +5780,13 @@
         <v>1574395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M14" s="7">
         <v>3173</v>
@@ -5777,13 +5795,13 @@
         <v>3318237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5857,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5851,13 +5869,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>434</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -5881,13 +5899,13 @@
         <v>6395</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>437</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>438</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5902,13 +5920,13 @@
         <v>7943</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>440</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>438</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -5917,13 +5935,13 @@
         <v>16985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -5932,13 +5950,13 @@
         <v>24927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>442</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5971,13 @@
         <v>13691</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>446</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -5968,13 +5986,13 @@
         <v>13792</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>447</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M18" s="7">
         <v>23</v>
@@ -5983,13 +6001,13 @@
         <v>27484</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>450</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6022,13 @@
         <v>30154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>453</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>454</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -6019,13 +6037,13 @@
         <v>50708</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>456</v>
+        <v>334</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M19" s="7">
         <v>74</v>
@@ -6034,13 +6052,13 @@
         <v>80862</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6073,13 @@
         <v>488500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H20" s="7">
         <v>444</v>
@@ -6070,13 +6088,13 @@
         <v>460356</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>895</v>
@@ -6085,13 +6103,13 @@
         <v>948855</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,13 +6177,13 @@
         <v>45576</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>15</v>
+        <v>464</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -6174,13 +6192,13 @@
         <v>107929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M22" s="7">
         <v>137</v>
@@ -6189,13 +6207,13 @@
         <v>153505</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>109</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6210,13 +6228,13 @@
         <v>93916</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>470</v>
       </c>
       <c r="H23" s="7">
         <v>188</v>
@@ -6225,13 +6243,13 @@
         <v>213817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="M23" s="7">
         <v>279</v>
@@ -6240,13 +6258,13 @@
         <v>307733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>474</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>21</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6261,13 +6279,13 @@
         <v>136887</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>478</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>479</v>
+        <v>287</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>480</v>
+        <v>365</v>
       </c>
       <c r="H24" s="7">
         <v>179</v>
@@ -6276,13 +6294,13 @@
         <v>204480</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>482</v>
+        <v>21</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M24" s="7">
         <v>313</v>
@@ -6291,13 +6309,13 @@
         <v>341367</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>306</v>
+        <v>478</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6330,13 @@
         <v>348947</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>486</v>
+        <v>35</v>
       </c>
       <c r="H25" s="7">
         <v>444</v>
@@ -6327,13 +6345,13 @@
         <v>488548</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M25" s="7">
         <v>780</v>
@@ -6342,13 +6360,13 @@
         <v>837495</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,13 +6381,13 @@
         <v>2727571</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="H26" s="7">
         <v>2401</v>
@@ -6378,13 +6396,13 @@
         <v>2494774</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M26" s="7">
         <v>4987</v>
@@ -6393,13 +6411,13 @@
         <v>5222345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,7 +6492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F973F16F-AAE3-42AD-8B16-24432CA7FB47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB3CB8D-0B51-498B-B62E-51EC4D7995BD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6491,7 +6509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6598,13 +6616,13 @@
         <v>34850</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>502</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H4" s="7">
         <v>170</v>
@@ -6613,13 +6631,13 @@
         <v>88853</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>505</v>
+        <v>214</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
@@ -6628,13 +6646,13 @@
         <v>123703</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,10 +6670,10 @@
         <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H5" s="7">
         <v>262</v>
@@ -6664,13 +6682,13 @@
         <v>155031</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>507</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="M5" s="7">
         <v>359</v>
@@ -6679,13 +6697,13 @@
         <v>227849</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6700,13 +6718,13 @@
         <v>62135</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
@@ -6715,13 +6733,13 @@
         <v>127093</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>521</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M6" s="7">
         <v>306</v>
@@ -6730,13 +6748,13 @@
         <v>189228</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6769,13 @@
         <v>71195</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="H7" s="7">
         <v>292</v>
@@ -6766,13 +6784,13 @@
         <v>164134</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
@@ -6781,13 +6799,13 @@
         <v>235328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6820,13 @@
         <v>300636</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -6817,13 +6835,13 @@
         <v>298416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
@@ -6832,13 +6850,13 @@
         <v>599052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6906,13 +6924,13 @@
         <v>39390</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>538</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>544</v>
+        <v>150</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>436</v>
+        <v>539</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
@@ -6921,13 +6939,13 @@
         <v>57977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>545</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>540</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
@@ -6936,13 +6954,13 @@
         <v>97368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>542</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>547</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6957,13 +6975,13 @@
         <v>101219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>82</v>
+        <v>544</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>545</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
@@ -6972,13 +6990,13 @@
         <v>123072</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>551</v>
+        <v>303</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
@@ -6987,13 +7005,13 @@
         <v>224291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>554</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7008,13 +7026,13 @@
         <v>128661</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="H12" s="7">
         <v>260</v>
@@ -7023,13 +7041,13 @@
         <v>173242</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M12" s="7">
         <v>402</v>
@@ -7038,13 +7056,13 @@
         <v>301903</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>136</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7077,13 @@
         <v>259929</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>96</v>
+        <v>558</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H13" s="7">
         <v>507</v>
@@ -7074,13 +7092,13 @@
         <v>411950</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="M13" s="7">
         <v>793</v>
@@ -7089,13 +7107,13 @@
         <v>671879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7128,13 @@
         <v>1630981</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H14" s="7">
         <v>1862</v>
@@ -7125,28 +7143,28 @@
         <v>1482780</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M14" s="7">
         <v>3274</v>
       </c>
       <c r="N14" s="7">
-        <v>3113761</v>
+        <v>3113760</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,7 +7206,7 @@
         <v>4910</v>
       </c>
       <c r="N15" s="7">
-        <v>4409202</v>
+        <v>4409201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7202,7 +7220,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7214,13 +7232,13 @@
         <v>8705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>400</v>
+        <v>575</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>237</v>
+        <v>576</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
@@ -7229,13 +7247,13 @@
         <v>11239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -7244,13 +7262,13 @@
         <v>19944</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>581</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>582</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7265,13 +7283,13 @@
         <v>19233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H17" s="7">
         <v>48</v>
@@ -7280,13 +7298,13 @@
         <v>29842</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>587</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -7295,13 +7313,13 @@
         <v>49075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>584</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,13 +7334,13 @@
         <v>28240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>587</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
@@ -7331,13 +7349,13 @@
         <v>45128</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
@@ -7346,13 +7364,13 @@
         <v>73368</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7385,13 @@
         <v>69891</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
@@ -7382,13 +7400,13 @@
         <v>95871</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>598</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M19" s="7">
         <v>224</v>
@@ -7397,13 +7415,13 @@
         <v>165762</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>599</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7436,13 @@
         <v>545466</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>713</v>
@@ -7433,13 +7451,13 @@
         <v>530256</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="M20" s="7">
         <v>1252</v>
@@ -7448,13 +7466,13 @@
         <v>1075722</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7540,13 @@
         <v>82946</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>587</v>
       </c>
       <c r="H22" s="7">
         <v>288</v>
@@ -7537,13 +7555,13 @@
         <v>158069</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>613</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>614</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
@@ -7552,13 +7570,13 @@
         <v>241015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>443</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>162</v>
+        <v>616</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7591,13 @@
         <v>193270</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="H23" s="7">
         <v>501</v>
@@ -7588,13 +7606,13 @@
         <v>307945</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>616</v>
+        <v>366</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="M23" s="7">
         <v>727</v>
@@ -7603,13 +7621,13 @@
         <v>501215</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>302</v>
+        <v>623</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7642,13 @@
         <v>219036</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>622</v>
+        <v>330</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H24" s="7">
         <v>557</v>
@@ -7639,13 +7657,13 @@
         <v>345463</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>629</v>
       </c>
       <c r="M24" s="7">
         <v>815</v>
@@ -7654,13 +7672,13 @@
         <v>564499</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7693,13 @@
         <v>401015</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="H25" s="7">
         <v>946</v>
@@ -7690,13 +7708,13 @@
         <v>671955</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="M25" s="7">
         <v>1410</v>
@@ -7705,13 +7723,13 @@
         <v>1072970</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>93</v>
+        <v>640</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7744,13 @@
         <v>2477082</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="H26" s="7">
         <v>3053</v>
@@ -7741,13 +7759,13 @@
         <v>2311453</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="M26" s="7">
         <v>5365</v>
@@ -7756,13 +7774,13 @@
         <v>4788535</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P11-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E45826A-1D7B-47AC-A9A6-A0B49DEC47C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F34A6BD6-A031-44A0-9361-D97346D2AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{007E9AE7-AF57-43CC-9FE9-DDC476B31592}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{96714002-B673-4270-9C99-6A2E9C3033B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="641">
   <si>
     <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -1535,463 +1535,433 @@
     <t>Población según dificultad en su trabajo habitual las últimas 4 semanas por el dolor en 2023 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
 </sst>
 </file>
@@ -2403,7 +2373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6A6CF7-054E-426B-A96C-0ADF0DDC9D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C3971C-817B-4C4F-82AA-6BA369E31A96}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2809,7 +2779,7 @@
         <v>2329</v>
       </c>
       <c r="N9" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -3036,7 +3006,7 @@
         <v>1455</v>
       </c>
       <c r="D14" s="7">
-        <v>1498795</v>
+        <v>1498796</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>98</v>
@@ -3087,7 +3057,7 @@
         <v>1649</v>
       </c>
       <c r="D15" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -3652,7 +3622,7 @@
         <v>2614</v>
       </c>
       <c r="D26" s="7">
-        <v>2680860</v>
+        <v>2680859</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>183</v>
@@ -3667,7 +3637,7 @@
         <v>2338</v>
       </c>
       <c r="I26" s="7">
-        <v>2392492</v>
+        <v>2392491</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>186</v>
@@ -3703,7 +3673,7 @@
         <v>3214</v>
       </c>
       <c r="D27" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -3718,7 +3688,7 @@
         <v>3297</v>
       </c>
       <c r="I27" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -3733,7 +3703,7 @@
         <v>6511</v>
       </c>
       <c r="N27" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3766,7 +3736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834FC7F0-00BC-40B9-8F9C-1D18C67CA2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5119A1-91B2-452B-8EB6-29785E50C325}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4121,7 +4091,7 @@
         <v>1190</v>
       </c>
       <c r="N8" s="7">
-        <v>1275405</v>
+        <v>1275404</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>236</v>
@@ -4172,7 +4142,7 @@
         <v>2150</v>
       </c>
       <c r="N9" s="7">
-        <v>2307406</v>
+        <v>2307405</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5129,7 +5099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6433A8FE-BAEB-4EAB-AE4A-E9602CC1A9CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B7B1C9-08EB-4BB9-9AD9-ECDD705351C1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6492,7 +6462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB3CB8D-0B51-498B-B62E-51EC4D7995BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27621255-25C0-4258-92E0-858AC8CE4AD4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6613,46 +6583,46 @@
         <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>34850</v>
+        <v>32671</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>303</v>
+        <v>498</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>499</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="H4" s="7">
         <v>170</v>
       </c>
       <c r="I4" s="7">
-        <v>88853</v>
+        <v>80169</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>214</v>
+        <v>502</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M4" s="7">
         <v>217</v>
       </c>
       <c r="N4" s="7">
-        <v>123703</v>
+        <v>112840</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,46 +6634,46 @@
         <v>97</v>
       </c>
       <c r="D5" s="7">
-        <v>72818</v>
+        <v>68199</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>507</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H5" s="7">
         <v>262</v>
       </c>
       <c r="I5" s="7">
-        <v>155031</v>
+        <v>137597</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M5" s="7">
         <v>359</v>
       </c>
       <c r="N5" s="7">
-        <v>227849</v>
+        <v>205796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,43 +6685,43 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>62135</v>
+        <v>58700</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>221</v>
       </c>
       <c r="I6" s="7">
-        <v>127093</v>
+        <v>114767</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>520</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>306</v>
       </c>
       <c r="N6" s="7">
-        <v>189228</v>
+        <v>173467</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>519</v>
@@ -6766,46 +6736,46 @@
         <v>101</v>
       </c>
       <c r="D7" s="7">
-        <v>71195</v>
+        <v>67620</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>520</v>
+        <v>421</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H7" s="7">
         <v>292</v>
       </c>
       <c r="I7" s="7">
-        <v>164134</v>
+        <v>151308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M7" s="7">
         <v>393</v>
       </c>
       <c r="N7" s="7">
-        <v>235328</v>
+        <v>218929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,46 +6787,46 @@
         <v>361</v>
       </c>
       <c r="D8" s="7">
-        <v>300636</v>
+        <v>287748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
       </c>
       <c r="I8" s="7">
-        <v>298416</v>
+        <v>269493</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M8" s="7">
         <v>839</v>
       </c>
       <c r="N8" s="7">
-        <v>599052</v>
+        <v>557241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6838,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6883,7 +6853,7 @@
         <v>1423</v>
       </c>
       <c r="I9" s="7">
-        <v>833527</v>
+        <v>753334</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -6898,7 +6868,7 @@
         <v>2114</v>
       </c>
       <c r="N9" s="7">
-        <v>1375160</v>
+        <v>1268273</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -6921,46 +6891,46 @@
         <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>39390</v>
+        <v>37146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>538</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>150</v>
+        <v>541</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>539</v>
+        <v>292</v>
       </c>
       <c r="H10" s="7">
         <v>100</v>
       </c>
       <c r="I10" s="7">
-        <v>57977</v>
+        <v>53773</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>542</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>97368</v>
+        <v>90919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>541</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>542</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,46 +6942,46 @@
         <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>101219</v>
+        <v>95784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>545</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>191</v>
       </c>
       <c r="I11" s="7">
-        <v>123072</v>
+        <v>112845</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>546</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>547</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>303</v>
+        <v>548</v>
       </c>
       <c r="M11" s="7">
         <v>296</v>
       </c>
       <c r="N11" s="7">
-        <v>224291</v>
+        <v>208629</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>549</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>453</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,28 +6993,28 @@
         <v>142</v>
       </c>
       <c r="D12" s="7">
-        <v>128661</v>
+        <v>123705</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H12" s="7">
         <v>260</v>
       </c>
       <c r="I12" s="7">
-        <v>173242</v>
+        <v>161978</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>554</v>
+        <v>25</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>555</v>
@@ -7053,16 +7023,16 @@
         <v>402</v>
       </c>
       <c r="N12" s="7">
-        <v>301903</v>
+        <v>285682</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>556</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,28 +7044,28 @@
         <v>286</v>
       </c>
       <c r="D13" s="7">
-        <v>259929</v>
+        <v>253811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>418</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H13" s="7">
         <v>507</v>
       </c>
       <c r="I13" s="7">
-        <v>411950</v>
+        <v>484480</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>561</v>
+        <v>507</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>562</v>
@@ -7104,7 +7074,7 @@
         <v>793</v>
       </c>
       <c r="N13" s="7">
-        <v>671879</v>
+        <v>738291</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>563</v>
@@ -7125,7 +7095,7 @@
         <v>1412</v>
       </c>
       <c r="D14" s="7">
-        <v>1630981</v>
+        <v>1778234</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>566</v>
@@ -7140,7 +7110,7 @@
         <v>1862</v>
       </c>
       <c r="I14" s="7">
-        <v>1482780</v>
+        <v>1424314</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>569</v>
@@ -7155,7 +7125,7 @@
         <v>3274</v>
       </c>
       <c r="N14" s="7">
-        <v>3113760</v>
+        <v>3202549</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>572</v>
@@ -7176,7 +7146,7 @@
         <v>1990</v>
       </c>
       <c r="D15" s="7">
-        <v>2160180</v>
+        <v>2288680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7191,7 +7161,7 @@
         <v>2920</v>
       </c>
       <c r="I15" s="7">
-        <v>2249022</v>
+        <v>2237390</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7206,7 +7176,7 @@
         <v>4910</v>
       </c>
       <c r="N15" s="7">
-        <v>4409201</v>
+        <v>4526070</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7229,46 +7199,46 @@
         <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>8705</v>
+        <v>8074</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>575</v>
+        <v>154</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>576</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>577</v>
+        <v>443</v>
       </c>
       <c r="H16" s="7">
         <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>11239</v>
+        <v>10253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>576</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>19944</v>
+        <v>18327</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>577</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>578</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7250,13 @@
         <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>19233</v>
+        <v>18230</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>580</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>581</v>
@@ -7295,13 +7265,13 @@
         <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>29842</v>
+        <v>26810</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>582</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>583</v>
@@ -7310,16 +7280,16 @@
         <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>49075</v>
+        <v>45040</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,46 +7301,46 @@
         <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>28240</v>
+        <v>27238</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>586</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>588</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>76</v>
       </c>
       <c r="I18" s="7">
-        <v>45128</v>
+        <v>41986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>28</v>
+        <v>360</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M18" s="7">
         <v>107</v>
       </c>
       <c r="N18" s="7">
-        <v>73368</v>
+        <v>69224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>593</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,46 +7352,46 @@
         <v>77</v>
       </c>
       <c r="D19" s="7">
-        <v>69891</v>
+        <v>68050</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>481</v>
+        <v>590</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H19" s="7">
         <v>147</v>
       </c>
       <c r="I19" s="7">
-        <v>95871</v>
+        <v>91352</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>593</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M19" s="7">
         <v>224</v>
       </c>
       <c r="N19" s="7">
-        <v>165762</v>
+        <v>159403</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,46 +7403,46 @@
         <v>539</v>
       </c>
       <c r="D20" s="7">
-        <v>545466</v>
+        <v>523616</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H20" s="7">
         <v>713</v>
       </c>
       <c r="I20" s="7">
-        <v>530256</v>
+        <v>488770</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M20" s="7">
         <v>1252</v>
       </c>
       <c r="N20" s="7">
-        <v>1075722</v>
+        <v>1012386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>609</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7484,7 +7454,7 @@
         <v>680</v>
       </c>
       <c r="D21" s="7">
-        <v>671536</v>
+        <v>645208</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7499,7 +7469,7 @@
         <v>1002</v>
       </c>
       <c r="I21" s="7">
-        <v>712336</v>
+        <v>659172</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7514,7 +7484,7 @@
         <v>1682</v>
       </c>
       <c r="N21" s="7">
-        <v>1383872</v>
+        <v>1304380</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7537,46 +7507,46 @@
         <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>82946</v>
+        <v>77891</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>611</v>
+        <v>81</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H22" s="7">
         <v>288</v>
       </c>
       <c r="I22" s="7">
-        <v>158069</v>
+        <v>144196</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="M22" s="7">
         <v>389</v>
       </c>
       <c r="N22" s="7">
-        <v>241015</v>
+        <v>222087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>612</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>616</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,46 +7558,46 @@
         <v>226</v>
       </c>
       <c r="D23" s="7">
-        <v>193270</v>
+        <v>182213</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>617</v>
+        <v>337</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="H23" s="7">
         <v>501</v>
       </c>
       <c r="I23" s="7">
-        <v>307945</v>
+        <v>277252</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="M23" s="7">
         <v>727</v>
       </c>
       <c r="N23" s="7">
-        <v>501215</v>
+        <v>459465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>622</v>
+        <v>202</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7639,46 +7609,46 @@
         <v>258</v>
       </c>
       <c r="D24" s="7">
-        <v>219036</v>
+        <v>209643</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>330</v>
+        <v>618</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H24" s="7">
         <v>557</v>
       </c>
       <c r="I24" s="7">
-        <v>345463</v>
+        <v>318731</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="M24" s="7">
         <v>815</v>
       </c>
       <c r="N24" s="7">
-        <v>564499</v>
+        <v>528373</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>630</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>631</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7690,46 +7660,46 @@
         <v>464</v>
       </c>
       <c r="D25" s="7">
-        <v>401015</v>
+        <v>389482</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="H25" s="7">
         <v>946</v>
       </c>
       <c r="I25" s="7">
-        <v>671955</v>
+        <v>727140</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="M25" s="7">
         <v>1410</v>
       </c>
       <c r="N25" s="7">
-        <v>1072970</v>
+        <v>1116623</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7741,46 +7711,46 @@
         <v>2312</v>
       </c>
       <c r="D26" s="7">
-        <v>2477082</v>
+        <v>2589597</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>644</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>3053</v>
       </c>
       <c r="I26" s="7">
-        <v>2311453</v>
+        <v>2182577</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="M26" s="7">
         <v>5365</v>
       </c>
       <c r="N26" s="7">
-        <v>4788535</v>
+        <v>4772175</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7792,7 +7762,7 @@
         <v>3361</v>
       </c>
       <c r="D27" s="7">
-        <v>3373349</v>
+        <v>3448826</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7807,7 +7777,7 @@
         <v>5345</v>
       </c>
       <c r="I27" s="7">
-        <v>3794885</v>
+        <v>3649896</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7822,7 +7792,7 @@
         <v>8706</v>
       </c>
       <c r="N27" s="7">
-        <v>7168234</v>
+        <v>7098723</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
